--- a/test-data-2/extra.xlsx
+++ b/test-data-2/extra.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mbp/Local/echidna/test-data-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796AB0AE-24FA-E646-AE71-2B7A66C6A5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CCF7D9-7EA7-AB4F-A2A3-59E88F5C90C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15100" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="26440" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,19 +22,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>RX_ORDER_NAME</t>
+    <t>CSN</t>
   </si>
   <si>
-    <t>ORDER_START_DTTM</t>
+    <t>Rx</t>
   </si>
   <si>
-    <t>DURATION_IN_DAYS</t>
+    <t>Start</t>
   </si>
   <si>
-    <t>INDEX_CX_DTTM</t>
+    <t>DOT</t>
   </si>
   <si>
-    <t>PAT_ENC_CSN_ID</t>
+    <t>Index_cx</t>
   </si>
 </sst>
 </file>
@@ -414,19 +414,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
